--- a/docs/OpenRewrite-RSPEC-mapping__corrected_subset_.xlsx
+++ b/docs/OpenRewrite-RSPEC-mapping__corrected_subset_.xlsx
@@ -1,6 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="0"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+  </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
   </sheets>
@@ -487,13 +491,56 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+</styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -521,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -535,7 +582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -549,7 +596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -563,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -577,7 +624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -591,7 +638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -605,7 +652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -619,7 +666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -633,7 +680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -647,7 +694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -661,7 +708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -675,7 +722,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -689,7 +736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -703,7 +750,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -717,7 +764,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -731,7 +778,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -745,7 +792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -759,7 +806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -773,7 +820,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -787,7 +834,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -801,7 +848,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -815,7 +862,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -829,7 +876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -843,7 +890,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -857,7 +904,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -871,7 +918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -885,7 +932,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -899,7 +946,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -913,7 +960,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -927,7 +974,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -941,7 +988,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -955,7 +1002,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>124</v>
       </c>
@@ -969,7 +1016,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -983,7 +1030,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -997,7 +1044,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -1011,7 +1058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>138</v>
       </c>
@@ -1025,7 +1072,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>142</v>
       </c>
@@ -1039,7 +1086,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>146</v>
       </c>
@@ -1053,7 +1100,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -1067,7 +1114,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -1082,5 +1129,6 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>